--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ngf</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.658241666666667</v>
+        <v>4.5666645</v>
       </c>
       <c r="H2">
-        <v>10.974725</v>
+        <v>9.133329</v>
       </c>
       <c r="I2">
-        <v>0.2093988336068688</v>
+        <v>0.156583237611307</v>
       </c>
       <c r="J2">
-        <v>0.2730291219287808</v>
+        <v>0.1473423006975575</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.138402</v>
+        <v>0.0003185</v>
       </c>
       <c r="N2">
-        <v>0.415206</v>
+        <v>0.000637</v>
       </c>
       <c r="O2">
-        <v>0.6577057142110379</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P2">
-        <v>0.7424137037003925</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q2">
-        <v>0.5063079631499999</v>
+        <v>0.00145448264325</v>
       </c>
       <c r="R2">
-        <v>4.55677166835</v>
+        <v>0.005817930573</v>
       </c>
       <c r="S2">
-        <v>0.1377228094123639</v>
+        <v>0.0002495834309838918</v>
       </c>
       <c r="T2">
-        <v>0.2027005616292122</v>
+        <v>0.0001744418568519635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,75 +581,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.658241666666667</v>
+        <v>4.5666645</v>
       </c>
       <c r="H3">
-        <v>10.974725</v>
+        <v>9.133329</v>
       </c>
       <c r="I3">
-        <v>0.2093988336068688</v>
+        <v>0.156583237611307</v>
       </c>
       <c r="J3">
-        <v>0.2730291219287808</v>
+        <v>0.1473423006975575</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0720295</v>
+        <v>0.138402</v>
       </c>
       <c r="N3">
-        <v>0.144059</v>
+        <v>0.415206</v>
       </c>
       <c r="O3">
-        <v>0.3422942857889622</v>
+        <v>0.6926333700330297</v>
       </c>
       <c r="P3">
-        <v>0.2575862962996076</v>
+        <v>0.7716981202210981</v>
       </c>
       <c r="Q3">
-        <v>0.2635013181291667</v>
+        <v>0.632035500129</v>
       </c>
       <c r="R3">
-        <v>1.581007908775</v>
+        <v>3.792213000774</v>
       </c>
       <c r="S3">
-        <v>0.07167602419450489</v>
+        <v>0.1084547755574022</v>
       </c>
       <c r="T3">
-        <v>0.0703285602995686</v>
+        <v>0.1137037764773569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.214461</v>
+        <v>4.5666645</v>
       </c>
       <c r="H4">
-        <v>24.428922</v>
+        <v>9.133329</v>
       </c>
       <c r="I4">
-        <v>0.6991593556658381</v>
+        <v>0.156583237611307</v>
       </c>
       <c r="J4">
-        <v>0.6077425287036053</v>
+        <v>0.1473423006975575</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.138402</v>
+        <v>0.0610995</v>
       </c>
       <c r="N4">
-        <v>0.415206</v>
+        <v>0.122199</v>
       </c>
       <c r="O4">
-        <v>0.6577057142110379</v>
+        <v>0.3057726954258833</v>
       </c>
       <c r="P4">
-        <v>0.7424137037003925</v>
+        <v>0.2271179573341859</v>
       </c>
       <c r="Q4">
-        <v>1.690505831322</v>
+        <v>0.27902091761775</v>
       </c>
       <c r="R4">
-        <v>10.143034987932</v>
+        <v>1.116083670471</v>
       </c>
       <c r="S4">
-        <v>0.4598411033655291</v>
+        <v>0.04787887862292088</v>
       </c>
       <c r="T4">
-        <v>0.4511963816310857</v>
+        <v>0.03346408236334865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.214461</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H5">
-        <v>24.428922</v>
+        <v>10.974725</v>
       </c>
       <c r="I5">
-        <v>0.6991593556658381</v>
+        <v>0.1254349480088258</v>
       </c>
       <c r="J5">
-        <v>0.6077425287036053</v>
+        <v>0.1770483939670849</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,60 +738,60 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0720295</v>
+        <v>0.0003185</v>
       </c>
       <c r="N5">
-        <v>0.144059</v>
+        <v>0.000637</v>
       </c>
       <c r="O5">
-        <v>0.3422942857889622</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P5">
-        <v>0.2575862962996076</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q5">
-        <v>0.8798015185995</v>
+        <v>0.001165149970833333</v>
       </c>
       <c r="R5">
-        <v>3.519206074398</v>
+        <v>0.006990899825</v>
       </c>
       <c r="S5">
-        <v>0.2393182523003091</v>
+        <v>0.0001999350962907167</v>
       </c>
       <c r="T5">
-        <v>0.1565461470725196</v>
+        <v>0.0002096115674185902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.506631333333333</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H6">
-        <v>4.519894</v>
+        <v>10.974725</v>
       </c>
       <c r="I6">
-        <v>0.08624002256336123</v>
+        <v>0.1254349480088258</v>
       </c>
       <c r="J6">
-        <v>0.1124458872574178</v>
+        <v>0.1770483939670849</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,54 +806,54 @@
         <v>0.415206</v>
       </c>
       <c r="O6">
-        <v>0.6577057142110379</v>
+        <v>0.6926333700330297</v>
       </c>
       <c r="P6">
-        <v>0.7424137037003925</v>
+        <v>0.7716981202210981</v>
       </c>
       <c r="Q6">
-        <v>0.208520789796</v>
+        <v>0.5063079631499999</v>
       </c>
       <c r="R6">
-        <v>1.876687108164</v>
+        <v>4.55677166835</v>
       </c>
       <c r="S6">
-        <v>0.05672055563361152</v>
+        <v>0.08688043075927086</v>
       </c>
       <c r="T6">
-        <v>0.08348136762465633</v>
+        <v>0.1366279128125638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.506631333333333</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H7">
-        <v>4.519894</v>
+        <v>10.974725</v>
       </c>
       <c r="I7">
-        <v>0.08624002256336123</v>
+        <v>0.1254349480088258</v>
       </c>
       <c r="J7">
-        <v>0.1124458872574178</v>
+        <v>0.1770483939670849</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,152 +862,214 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0720295</v>
+        <v>0.0610995</v>
       </c>
       <c r="N7">
-        <v>0.144059</v>
+        <v>0.122199</v>
       </c>
       <c r="O7">
-        <v>0.3422942857889622</v>
+        <v>0.3057726954258833</v>
       </c>
       <c r="P7">
-        <v>0.2575862962996076</v>
+        <v>0.2271179573341859</v>
       </c>
       <c r="Q7">
-        <v>0.1085219016243333</v>
+        <v>0.2235167367125</v>
       </c>
       <c r="R7">
-        <v>0.6511314097459999</v>
+        <v>1.341100420275</v>
       </c>
       <c r="S7">
-        <v>0.02951946692974972</v>
+        <v>0.03835458215326419</v>
       </c>
       <c r="T7">
-        <v>0.02896451963276149</v>
+        <v>0.04021086958710252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09087633333333334</v>
+        <v>20.939547</v>
       </c>
       <c r="H8">
-        <v>0.272629</v>
+        <v>41.87909399999999</v>
       </c>
       <c r="I8">
-        <v>0.005201788163931856</v>
+        <v>0.7179818143798673</v>
       </c>
       <c r="J8">
-        <v>0.006782462110196071</v>
+        <v>0.6756093053353576</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.138402</v>
+        <v>0.0003185</v>
       </c>
       <c r="N8">
-        <v>0.415206</v>
+        <v>0.000637</v>
       </c>
       <c r="O8">
-        <v>0.6577057142110379</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P8">
-        <v>0.7424137037003925</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q8">
-        <v>0.012577466286</v>
+        <v>0.006669245719499999</v>
       </c>
       <c r="R8">
-        <v>0.113197196574</v>
+        <v>0.026676982878</v>
       </c>
       <c r="S8">
-        <v>0.003421245799533324</v>
+        <v>0.00114441601381237</v>
       </c>
       <c r="T8">
-        <v>0.005035392815438244</v>
+        <v>0.0007998690204456582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.09087633333333334</v>
+        <v>20.939547</v>
       </c>
       <c r="H9">
-        <v>0.272629</v>
+        <v>41.87909399999999</v>
       </c>
       <c r="I9">
-        <v>0.005201788163931856</v>
+        <v>0.7179818143798673</v>
       </c>
       <c r="J9">
-        <v>0.006782462110196071</v>
+        <v>0.6756093053353576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.138402</v>
+      </c>
+      <c r="N9">
+        <v>0.415206</v>
+      </c>
+      <c r="O9">
+        <v>0.6926333700330297</v>
+      </c>
+      <c r="P9">
+        <v>0.7716981202210981</v>
+      </c>
+      <c r="Q9">
+        <v>2.898075183894</v>
+      </c>
+      <c r="R9">
+        <v>17.388451103364</v>
+      </c>
+      <c r="S9">
+        <v>0.4972981637163567</v>
+      </c>
+      <c r="T9">
+        <v>0.5213664309311773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>20.939547</v>
+      </c>
+      <c r="H10">
+        <v>41.87909399999999</v>
+      </c>
+      <c r="I10">
+        <v>0.7179818143798673</v>
+      </c>
+      <c r="J10">
+        <v>0.6756093053353576</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="M9">
-        <v>0.0720295</v>
-      </c>
-      <c r="N9">
-        <v>0.144059</v>
-      </c>
-      <c r="O9">
-        <v>0.3422942857889622</v>
-      </c>
-      <c r="P9">
-        <v>0.2575862962996076</v>
-      </c>
-      <c r="Q9">
-        <v>0.006545776851833334</v>
-      </c>
-      <c r="R9">
-        <v>0.039274661111</v>
-      </c>
-      <c r="S9">
-        <v>0.001780542364398532</v>
-      </c>
-      <c r="T9">
-        <v>0.001747069294757827</v>
+      <c r="M10">
+        <v>0.0610995</v>
+      </c>
+      <c r="N10">
+        <v>0.122199</v>
+      </c>
+      <c r="O10">
+        <v>0.3057726954258833</v>
+      </c>
+      <c r="P10">
+        <v>0.2271179573341859</v>
+      </c>
+      <c r="Q10">
+        <v>1.2793958519265</v>
+      </c>
+      <c r="R10">
+        <v>5.117583407705999</v>
+      </c>
+      <c r="S10">
+        <v>0.2195392346496982</v>
+      </c>
+      <c r="T10">
+        <v>0.1534430053837347</v>
       </c>
     </row>
   </sheetData>
